--- a/Front-SIPROE/public/assets/Asignacion_Directa_Central.xlsx
+++ b/Front-SIPROE/public/assets/Asignacion_Directa_Central.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\SIPROE\Front-SIPROE\public\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyects\SIPROE\Front-SIPROE\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="4185" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="4368" yWindow="4188" windowWidth="21600" windowHeight="11292"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <t>FECHA DE RESOLUCIÓN</t>
   </si>
   <si>
-    <t>CONSULTA DE PRESUPUESTO PARTICIPATIVO 2025</t>
+    <t>CONSULTA DE PRESUPUESTO PARTICIPATIVO 2026 - 2027</t>
   </si>
 </sst>
 </file>
@@ -583,26 +583,26 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1"/>
-    <col min="7" max="7" width="82.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="82.109375" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -620,7 +620,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -636,7 +636,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -650,13 +650,13 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H4" s="5"/>
       <c r="J4" s="4"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>17</v>
       </c>
@@ -672,7 +672,7 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -685,7 +685,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
@@ -701,14 +701,14 @@
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="7"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="D9" s="8"/>
@@ -721,13 +721,13 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>5</v>
       </c>
